--- a/lifefinancetool/src/test/java/com/yuan/lifefinance/tool/test.xlsx
+++ b/lifefinancetool/src/test/java/com/yuan/lifefinance/tool/test.xlsx
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +339,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,65 +408,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,16 +805,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -820,8 +823,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2184400" y="1035050"/>
-          <a:ext cx="1162050" cy="1174750"/>
+          <a:off x="739588" y="1045135"/>
+          <a:ext cx="2609103" cy="3444689"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -923,6 +926,235 @@
         <a:ln>
           <a:tailEnd type="arrow"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6616700" y="1060450"/>
+          <a:ext cx="2222500" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8832850" y="1028700"/>
+          <a:ext cx="1390650" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>283882</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104588</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10234706" y="1075765"/>
+          <a:ext cx="926353" cy="784411"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3316941" y="1038412"/>
+          <a:ext cx="7851588" cy="22412"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>862106</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>522941</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1967753" y="2281518"/>
+          <a:ext cx="9611659" cy="11953"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1231,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H20"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.81640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1251,189 +1483,203 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="3:8" ht="3.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="9">
+      <c r="C2" s="29">
         <v>1</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="12">
+      <c r="D2" s="13"/>
+      <c r="E2" s="20">
         <v>1</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="3:8" ht="7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="10"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="4">
         <v>2</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="10"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="4">
         <v>3</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="10"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="15">
+      <c r="C5" s="30"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="23">
         <v>2</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="10"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="22"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="10"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="10"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="18">
+      <c r="C8" s="30"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="26">
         <v>3</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="10"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="23"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="9">
+      <c r="C12" s="29">
         <v>2</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="12">
+      <c r="D12" s="13"/>
+      <c r="E12" s="20">
         <v>1</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="10"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="10"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="15">
+      <c r="C15" s="30"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="23">
         <v>2</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="10"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="22"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="10"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="18">
+      <c r="C18" s="30"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="26">
         <v>3</v>
       </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="10"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="22"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="11"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="7">
         <v>3</v>
       </c>
     </row>
+    <row r="24" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="32"/>
+    </row>
+    <row r="30" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="32"/>
+    </row>
+    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="D2:D10"/>
@@ -1445,11 +1691,6 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lifefinancetool/src/test/java/com/yuan/lifefinance/tool/test.xlsx
+++ b/lifefinancetool/src/test/java/com/yuan/lifefinance/tool/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>2019/08/26-2019/08/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最终产出/收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +255,38 @@
   </si>
   <si>
     <t>季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划产出(数量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动、健康饮食[泡饮]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴莲千层、螃蟹店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《边城》《围城》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备孕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +312,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.59999389629810485"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -366,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,16 +413,25 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -692,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.26953125" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -713,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,55 +1098,55 @@
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="1" t="s">
         <v>36</v>
       </c>
@@ -1110,77 +1155,77 @@
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="5"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="1" t="s">
         <v>50</v>
       </c>
@@ -1196,12 +1241,12 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1211,218 +1256,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.90625" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6328125" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" customWidth="1"/>
+    <col min="6" max="6" width="31.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5">
+        <v>43709</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>110</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="C13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1445,6 +1533,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/lifefinancetool/src/test/java/com/yuan/lifefinance/tool/test.xlsx
+++ b/lifefinancetool/src/test/java/com/yuan/lifefinance/tool/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>2019/08/26-2019/08/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,35 +258,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>执行描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动、健康饮食[泡饮]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴莲千层、螃蟹店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《边城》《围城》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备孕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>计划产出(数量)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动、健康饮食[泡饮]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榴莲千层、螃蟹店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《边城》《围城》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备孕</t>
+    <t>休闲[旅游、周末城内游]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴趣爱好[跳舞、舞蹈]、看电影</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +345,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -340,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -398,11 +427,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,19 +485,31 @@
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -735,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.26953125" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -750,18 +828,27 @@
     <col min="5" max="16384" width="28.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -770,43 +857,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>43703</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>43704</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>43705</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>43706</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>43707</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>43708</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -814,37 +919,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>43710</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>43711</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>43712</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>43713</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>43714</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>43715</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1098,55 +1203,55 @@
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="7"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="7"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="1" t="s">
         <v>36</v>
       </c>
@@ -1155,83 +1260,83 @@
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="7"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="7"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="7"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="7"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="7"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="7"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="7"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="1" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
@@ -1241,6 +1346,9 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
@@ -1258,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.90625" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1270,10 +1378,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
@@ -1281,23 +1389,23 @@
         <v>43709</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1310,10 +1418,10 @@
     </row>
     <row r="3" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="C3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1324,15 +1432,15 @@
     </row>
     <row r="4" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1340,10 +1448,10 @@
     </row>
     <row r="5" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="C5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1354,10 +1462,10 @@
     </row>
     <row r="6" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="1" t="s">
         <v>56</v>
       </c>
@@ -1368,10 +1476,10 @@
     </row>
     <row r="7" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="10"/>
+      <c r="C7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1384,10 +1492,10 @@
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="C8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1398,10 +1506,10 @@
     </row>
     <row r="9" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1412,15 +1520,15 @@
     </row>
     <row r="10" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1428,10 +1536,10 @@
     </row>
     <row r="11" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1442,10 +1550,10 @@
     </row>
     <row r="12" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1458,10 +1566,10 @@
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="C13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1472,10 +1580,10 @@
     </row>
     <row r="14" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1486,10 +1594,10 @@
     </row>
     <row r="15" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1500,10 +1608,10 @@
     </row>
     <row r="16" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1" t="s">
         <v>50</v>
       </c>

--- a/lifefinancetool/src/test/java/com/yuan/lifefinance/tool/test.xlsx
+++ b/lifefinancetool/src/test/java/com/yuan/lifefinance/tool/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
   <si>
     <t>描述</t>
   </si>
@@ -195,9 +195,6 @@
     <t>执行描述</t>
   </si>
   <si>
-    <t>运动、健康饮食[泡饮]</t>
-  </si>
-  <si>
     <t>基金理财</t>
   </si>
   <si>
@@ -214,10 +211,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>跑步/登山，瑜伽  薏米芡实红豆粥/周</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>《重塑证券交易心理》《霍乱时期的爱情》</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -227,6 +220,183 @@
   </si>
   <si>
     <t>象棋棋谱、《青苹果乐园》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月末看周线趋势T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">跑步/登山  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末运动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">工作日运动
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.收腹[平躺摸膝、反手撑地蹬腿、坐对膝左右绑手交替]
+2.平躺倒立[滋养脸部]10分钟
+3.高举手臂合在一起扭腰10分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">工作日
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敷面膜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频学做菜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖：没有做任何计划内的事，反思</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖：没有做任何计划内的事，反思</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖：瑜伽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖：计划晚上边敷面膜边瑜伽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖：瑜伽瘦肚子手臂/看书</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">健康饮食[泡饮]
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">周
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">年
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.多吃瘦肉蛋类鱼虾动物肝脏、豆类及豆制品、，补充蛋白质  
+2.多吃粗粮，易吸收   
+3.少吃含高亚油酸的植物油，吃茶油和橄榄油    
+4.至少提前1个月吃叶酸 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.忌吃胡萝卜、木瓜、咖啡、芹菜、烤牛羊、螃蟹、菠菜</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">备孕
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大事件列表
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.薏米芡实红豆粥/周
+2.忌吃生冷
+3.养肝多吃的水果：葡萄、西梅、橙子类富含丰富维C水果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">葡萄、西梅、橙子
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +416,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -253,6 +424,7 @@
       <sz val="11"/>
       <color theme="5" tint="0.59999389629810485"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -261,12 +433,46 @@
       <sz val="11"/>
       <color theme="2" tint="-0.89996032593768116"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -384,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +610,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,14 +631,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +970,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.26953125" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -778,54 +1016,74 @@
       <c r="B3" s="5">
         <v>43703</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5">
         <v>43704</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>43705</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>43706</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>43707</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>43708</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="D8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1119,55 +1377,55 @@
       <c r="A54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="11"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="11"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="11"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="11"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="11"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="11"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="3" t="s">
         <v>43</v>
       </c>
@@ -1176,77 +1434,77 @@
       <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="11"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="11"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="11"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="11"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="11"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="11"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="11"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="3" t="s">
         <v>51</v>
       </c>
@@ -1280,24 +1538,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I16"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.90625" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6328125" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="39.6328125" customWidth="1"/>
+    <col min="6" max="6" width="54.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1314,14 +1572,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1332,134 +1593,165 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>66</v>
+      <c r="C4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>91</v>
+      </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>65</v>
+      <c r="C5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="11"/>
+      <c r="C6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="13"/>
+    <row r="8" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>95</v>
+      </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="11"/>
+      <c r="C9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="C10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="11"/>
+    <row r="11" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
@@ -1468,102 +1760,201 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>98</v>
+      </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="11"/>
+      <c r="C12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="13"/>
+    <row r="13" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="13"/>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
+    <row r="17" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" ht="72.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="23">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/lifefinancetool/src/test/java/com/yuan/lifefinance/tool/test.xlsx
+++ b/lifefinancetool/src/test/java/com/yuan/lifefinance/tool/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日常追踪" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>描述</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>梧桐山登上</t>
   </si>
   <si>
     <t>J</t>
@@ -367,13 +364,139 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>交易操作：按计划写个股日报
+    <r>
+      <t>交易操作：按计划写个股日报
 持续运动：塑行减腹瘦小腿瘦肩瘦腰
 泡饮or水果：提子西瓜柚子
-周末运动：
+周末运动：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 做菜：清炒淮山，大盘鸡
-美容：
-看书：</t>
+美容：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+看书：证券交易心理</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>交易操作：按计划写个股日报
+持续运动：塑行减腹瘦小腿瘦肩瘦腰
+泡饮or水果：红糖泡水1，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">陈皮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周末运动：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+做菜：酸菜鱼
+美容：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+看书：证券交易心理</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>梧桐山登山</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +504,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +558,30 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -552,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,19 +727,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -613,17 +772,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.26953125" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -953,10 +1106,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
@@ -979,13 +1132,13 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="F3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -995,9 +1148,9 @@
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -1007,9 +1160,9 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="14"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -1019,9 +1172,9 @@
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -1031,9 +1184,9 @@
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
@@ -1043,9 +1196,9 @@
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1059,31 +1212,39 @@
       <c r="B10" s="9">
         <v>43710</v>
       </c>
+      <c r="E10" s="26" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>43711</v>
       </c>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>43712</v>
       </c>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>43713</v>
       </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>43714</v>
       </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>43715</v>
       </c>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1339,55 +1500,55 @@
       <c r="A54" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="12"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="12"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="12"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="12"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="12"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="12"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="4" t="s">
         <v>45</v>
       </c>
@@ -1396,88 +1557,83 @@
       <c r="A60" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="12"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="12"/>
+      <c r="C63" s="18"/>
     </row>
     <row r="64" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
     </row>
     <row r="65" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="12"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="12"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="12"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="12"/>
+      <c r="C68" s="18"/>
       <c r="D68" s="4" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
+  <mergeCells count="19">
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
@@ -1486,15 +1642,21 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E10:E15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1502,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.90625" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1514,10 +1676,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1541,10 +1703,10 @@
       <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="4" t="s">
         <v>36</v>
       </c>
@@ -1560,10 +1722,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
@@ -1577,10 +1739,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
         <v>65</v>
       </c>
@@ -1596,10 +1758,10 @@
         <v>67</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="5" t="s">
         <v>69</v>
       </c>
@@ -1615,10 +1777,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
@@ -1634,15 +1796,15 @@
         <v>74</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1653,10 +1815,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1672,10 +1834,10 @@
         <v>78</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1693,15 +1855,15 @@
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>82</v>
+      <c r="F10" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1709,13 +1871,13 @@
     </row>
     <row r="11" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1726,18 +1888,18 @@
     </row>
     <row r="12" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1745,18 +1907,18 @@
     </row>
     <row r="13" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1764,15 +1926,15 @@
     </row>
     <row r="14" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1781,36 +1943,36 @@
     </row>
     <row r="15" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1819,17 +1981,17 @@
     </row>
     <row r="19" spans="2:9" ht="72.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1837,15 +1999,15 @@
     </row>
     <row r="20" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1853,10 +2015,10 @@
     </row>
     <row r="21" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="4" t="s">
         <v>53</v>
       </c>
@@ -1867,10 +2029,10 @@
     </row>
     <row r="22" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1881,6 +2043,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C16:D16"/>
@@ -1888,21 +2065,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
